--- a/Data Science Introdução a análise de series temporais/Series Temporais data-analysis-a3.xlsx
+++ b/Data Science Introdução a análise de series temporais/Series Temporais data-analysis-a3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcamentoring-my.sharepoint.com/personal/alexsandro_ignacio_wca-ec_com_br/Documents/Documentos/Docs/Git/python_developer/Data Science Introdução a análise de series temporais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_6D6D3A00E23BC08A8658563FBD17460E90AB451C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC3D3493-BA6A-44BE-9D14-4C4AEE5CAA00}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_6D6D3A00E23BC08A8658563FBD17460E90AB451C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66DA4AE3-136E-4F18-B75B-74CA5B0A2A15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="450" yWindow="1005" windowWidth="20490" windowHeight="10155" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brancos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="D2" sheetId="7" r:id="rId7"/>
     <sheet name="D3" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Data</t>
   </si>
@@ -213,6 +213,15 @@
   <si>
     <t>13/01/2014</t>
   </si>
+  <si>
+    <t>Crescimento 2013-2014</t>
+  </si>
+  <si>
+    <t>Crescimento 2014-2015</t>
+  </si>
+  <si>
+    <t>Crescimento Médio</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -368,6 +377,7 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,9 +2421,71 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Fatores de Sazonalidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2434,12 +2506,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2452,6 +2525,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2576,12 +2671,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2594,6 +2690,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2718,12 +2836,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2736,6 +2855,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2855,9 +2996,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -2872,21 +3020,37 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -2908,29 +3072,44 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -2945,6 +3124,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -2955,18 +3135,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2980,9 +3200,71 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Sazonalidade Multiplicativa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3003,12 +3285,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3021,8 +3304,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3145,12 +3451,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3163,8 +3470,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3287,12 +3617,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3305,8 +3636,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3415,8 +3769,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3424,9 +3779,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -3441,21 +3803,37 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -3477,29 +3855,44 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -3514,6 +3907,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -3524,18 +3918,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3549,9 +3983,71 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Sazonalidade aditiva</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3572,12 +4068,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3590,8 +4087,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3714,12 +4234,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3732,8 +4253,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3856,12 +4400,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3874,8 +4419,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3984,8 +4552,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3993,9 +4562,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -4010,21 +4586,37 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -4046,29 +4638,44 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -4083,6 +4690,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -4093,18 +4701,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7319,7 +7967,14 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -7342,12 +7997,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7360,6 +8016,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7624,9 +8302,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -7643,41 +8328,90 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Mês</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="d\-mmm\-yyyy" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -7698,51 +8432,99 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Venda de Brinquedos Para Gatos (Mil R$)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -7757,6 +8539,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -7764,11 +8547,30 @@
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7782,7 +8584,14 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -7805,12 +8614,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7823,6 +8633,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7947,12 +8779,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7965,6 +8798,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8089,12 +8944,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -8107,6 +8963,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8226,9 +9104,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -8243,21 +9128,37 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -8279,51 +9180,99 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Vendas de Brinquedos (Mil R$)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -8338,6 +9287,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -8348,18 +9298,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8373,11 +9363,28 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13613008231382046"/>
+          <c:y val="4.6186436825500735E-2"/>
+          <c:w val="0.83969407259156581"/>
+          <c:h val="0.49559592322868651"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -8396,12 +9403,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -8414,6 +9422,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8719,12 +9749,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -8737,6 +9768,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9078,12 +10131,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -9096,6 +10150,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9432,9 +10508,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -9451,41 +10534,90 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Mês</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="d\-mmm\-yyyy" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -9506,51 +10638,99 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Venda de Brinquedos Para Gatos (Mil R$)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -9565,6 +10745,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -9572,11 +10753,30 @@
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9590,9 +10790,71 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Vendas Ano a Ano</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -9613,12 +10875,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -9631,6 +10894,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9755,12 +11040,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -9773,6 +11059,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9897,12 +11205,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -9915,6 +11224,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10034,9 +11365,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -10051,21 +11389,37 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -10087,51 +11441,99 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Vendas de Brinquedos (Mil R$)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -10146,6 +11548,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -10156,18 +11559,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10181,9 +11624,71 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sazonalidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -10204,12 +11709,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -10222,6 +11728,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10346,12 +11874,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="DC3912"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -10364,6 +11893,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10488,12 +12039,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25560">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF9900"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -10506,6 +12058,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10625,9 +12199,16 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
@@ -10644,41 +12225,90 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Mês</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -10700,51 +12330,99 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Sazonalidade</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47520">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -10759,6 +12437,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -10769,24 +12448,4512 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11019,16 +17186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>234420</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>948795</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57015</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>240765</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>955140</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>85095</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11062,7 +17229,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>506880</xdr:colOff>
+      <xdr:colOff>506879</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
@@ -11098,7 +17265,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>546840</xdr:colOff>
+      <xdr:colOff>546839</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
@@ -11134,7 +17301,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112679</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -11168,16 +17335,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457290</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>56940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11204,16 +17371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>246960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>161864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19795,8 +25962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20362,8 +26529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20371,7 +26538,7 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="17" width="14.42578125" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
@@ -21492,11 +27659,11 @@
         <v>7</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" ref="O30:Q41" si="3">O16/O2</f>
+        <f>O16/O2</f>
         <v>1.8018018018018462E-2</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O30:Q41" si="3">P16/P2</f>
         <v>-9.3707797817386848E-2</v>
       </c>
       <c r="Q30" s="9">
@@ -22098,22 +28265,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>2013</v>
       </c>
@@ -22123,10 +28291,21 @@
       <c r="D1" s="2">
         <v>2015</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -22139,10 +28318,26 @@
       <c r="D2" s="9">
         <v>-12.915572715572701</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E2" s="9">
+        <f>D2+H2</f>
+        <v>-19.490476190476173</v>
+      </c>
+      <c r="F2" s="22">
+        <f>C2-B2</f>
+        <v>-7.07490347490348</v>
+      </c>
+      <c r="G2" s="22">
+        <f>D2-C2</f>
+        <v>-6.0749034749034605</v>
+      </c>
+      <c r="H2" s="22">
+        <f>AVERAGE(F2:G2)</f>
+        <v>-6.5749034749034703</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -22155,10 +28350,26 @@
       <c r="D3" s="9">
         <v>13.494851994852</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E13" si="0">D3+H3</f>
+        <v>19.919948519948527</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F13" si="1">C3-B3</f>
+        <v>5.9250965250965297</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G13" si="2">D3-C3</f>
+        <v>6.9250965250965208</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H13" si="3">AVERAGE(F3:G3)</f>
+        <v>6.4250965250965253</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -22171,10 +28382,26 @@
       <c r="D4" s="9">
         <v>28.905276705276702</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>40.330373230373226</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="1"/>
+        <v>10.925096525096539</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="2"/>
+        <v>11.925096525096503</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="3"/>
+        <v>11.425096525096521</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -22187,8 +28414,24 @@
       <c r="D5" s="9">
         <v>-43.684298584298602</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>-63.259202059202089</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="1"/>
+        <v>-21.074903474903468</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="2"/>
+        <v>-18.074903474903504</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="3"/>
+        <v>-19.574903474903486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -22201,8 +28444,24 @@
       <c r="D6" s="9">
         <v>-31.273873873873899</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>-44.848777348777389</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>-16.074903474903479</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="2"/>
+        <v>-11.0749034749035</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="3"/>
+        <v>-13.57490347490349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -22215,8 +28474,24 @@
       <c r="D7" s="9">
         <v>-15.8634491634492</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>-21.938352638352697</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>-6.0749034749034898</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="2"/>
+        <v>-6.0749034749035005</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="3"/>
+        <v>-6.0749034749034951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -22229,8 +28504,24 @@
       <c r="D8" s="9">
         <v>63.546975546975503</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>86.972072072071995</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
+        <v>23.925096525096503</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>22.9250965250965</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="3"/>
+        <v>23.4250965250965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -22243,8 +28534,24 @@
       <c r="D9" s="9">
         <v>12.9574002574003</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>17.382496782496844</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="1"/>
+        <v>6.9250965250964889</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="2"/>
+        <v>1.9250965250966008</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="3"/>
+        <v>4.4250965250965448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -22257,8 +28564,24 @@
       <c r="D10" s="9">
         <v>-19.632175032174999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>-27.207078507078457</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="1"/>
+        <v>-8.07490347490352</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>-7.0749034749033992</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="3"/>
+        <v>-7.5749034749034596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -22271,8 +28594,24 @@
       <c r="D11" s="9">
         <v>-20.221750321750299</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>-28.296653796653764</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="1"/>
+        <v>-9.0749034749034294</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="2"/>
+        <v>-7.0749034749034987</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="3"/>
+        <v>-8.0749034749034649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -22285,8 +28624,24 @@
       <c r="D12" s="9">
         <v>-55.8113256113256</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>-74.386229086229051</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="1"/>
+        <v>-16.074903474903401</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="2"/>
+        <v>-21.0749034749035</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="3"/>
+        <v>-18.574903474903451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -22299,8 +28654,24 @@
       <c r="D13" s="9">
         <v>69.599099099099107</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>92.524195624195656</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="1"/>
+        <v>22.925096525096599</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="2"/>
+        <v>22.925096525096507</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="3"/>
+        <v>22.925096525096553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>2013</v>
       </c>
@@ -22310,8 +28681,12 @@
       <c r="D17" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -22324,12 +28699,13 @@
       <c r="D18" s="9">
         <v>-5.4026777963734496</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" ref="E18:E29" si="0">AVERAGE(B18:D18)</f>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F29" si="4">AVERAGE(B18:D18)</f>
         <v>-6.2255704319619065</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -22342,12 +28718,13 @@
       <c r="D19" s="9">
         <v>10.8736325891617</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11">
+        <f t="shared" si="4"/>
         <v>8.6828432167639633</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -22360,12 +28737,13 @@
       <c r="D20" s="9">
         <v>26.822612860857401</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11">
+        <f t="shared" si="4"/>
         <v>21.417120948266568</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -22378,12 +28756,13 @@
       <c r="D21" s="9">
         <v>-25.533601796986598</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11">
+        <f t="shared" si="4"/>
         <v>-25.489879877941402</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -22396,12 +28775,13 @@
       <c r="D22" s="9">
         <v>-17.628377056851299</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="0"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11">
+        <f t="shared" si="4"/>
         <v>-18.576896670236334</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -22414,12 +28794,13 @@
       <c r="D23" s="9">
         <v>-0.403996313543519</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="0"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11">
+        <f t="shared" si="4"/>
         <v>-5.6403275771109698</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -22432,12 +28813,13 @@
       <c r="D24" s="9">
         <v>49.257596720622601</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" si="0"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11">
+        <f t="shared" si="4"/>
         <v>44.760327000451866</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -22450,12 +28832,13 @@
       <c r="D25" s="9">
         <v>13.1851360961955</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="0"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11">
+        <f t="shared" si="4"/>
         <v>13.079274645970633</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -22468,12 +28851,13 @@
       <c r="D26" s="9">
         <v>-7.04621441117167</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="0"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11">
+        <f t="shared" si="4"/>
         <v>-9.4832221271389656</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -22486,12 +28870,13 @@
       <c r="D27" s="9">
         <v>-8.5610923465668094</v>
       </c>
-      <c r="E27" s="11">
-        <f t="shared" si="0"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11">
+        <f t="shared" si="4"/>
         <v>-10.715393163545071</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -22504,12 +28889,13 @@
       <c r="D28" s="9">
         <v>-28.7047563517051</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="0"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="11">
+        <f t="shared" si="4"/>
         <v>-32.663711140691966</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -22522,8 +28908,9 @@
       <c r="D29" s="9">
         <v>51.534989031373001</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="0"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="11">
+        <f t="shared" si="4"/>
         <v>48.835242609759433</v>
       </c>
     </row>
@@ -43531,7 +49918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44448,11 +50837,11 @@
       </c>
       <c r="G1">
         <f t="array" aca="1" ref="G1:H1" ca="1">LINEST(E2:E37)</f>
-        <v>5.6413119129250386</v>
+        <v>5.6353904207099701</v>
       </c>
       <c r="H1">
         <f ca="1"/>
-        <v>5.6161675823570647</v>
+        <v>6.1412195624196073</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44467,22 +50856,22 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D37" ca="1" si="0">RAND()*5</f>
-        <v>2.9627967393714867</v>
+        <v>2.1284724470322769</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E37" ca="1" si="1">B2*C2+D2</f>
-        <v>12.962796739371488</v>
+        <v>12.128472447032276</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G37" ca="1" si="2">$H$1+(F2*$G$1)</f>
-        <v>11.257479495282103</v>
+        <v>11.776609983129578</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H37" ca="1" si="3">E2-G2</f>
-        <v>1.7053172440893842</v>
+        <v>0.35186246390269815</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44497,22 +50886,22 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81975908483188809</v>
+        <v>3.8288413426639494</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>18.819759084831887</v>
+        <v>21.828841342663949</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>16.898791408207142</v>
+        <v>17.412000403839549</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9209676766247448</v>
+        <v>4.4168409388244001</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44527,22 +50916,22 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78307680268485058</v>
+        <v>1.7216489830019954</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>26.78307680268485</v>
+        <v>27.721648983001995</v>
       </c>
       <c r="F4" s="7">
         <v>3</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>22.540103321132179</v>
+        <v>23.047390824549517</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2429734815526707</v>
+        <v>4.6742581584524778</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44557,22 +50946,22 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1191023322975888</v>
+        <v>1.176109326435113</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>22.11910233229759</v>
+        <v>21.176109326435114</v>
       </c>
       <c r="F5" s="7">
         <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>28.181415234057219</v>
+        <v>28.682781245259488</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.0623129017596291</v>
+        <v>-7.5066719188243738</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44587,22 +50976,22 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7425159292356716</v>
+        <v>2.4812765501181944</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>30.742515929235672</v>
+        <v>29.481276550118196</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>33.82272714698226</v>
+        <v>34.318171665969459</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.0802112177465872</v>
+        <v>-4.836895115851263</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44617,22 +51006,22 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3524178205828727</v>
+        <v>0.70291750648405926</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>37.352417820582872</v>
+        <v>35.702917506484056</v>
       </c>
       <c r="F7" s="7">
         <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>39.464039059907293</v>
+        <v>39.953562086679426</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.1116212393244211</v>
+        <v>-4.2506445801953703</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44647,22 +51036,22 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8483713745221841</v>
+        <v>2.2189522823322609</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>62.848371374522188</v>
+        <v>62.21895228233226</v>
       </c>
       <c r="F8" s="7">
         <v>7</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>45.105350972832333</v>
+        <v>45.588952507389401</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.743020401689854</v>
+        <v>16.62999977494286</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44677,22 +51066,22 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63572382091053148</v>
+        <v>0.10894797288349689</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>54.635723820910535</v>
+        <v>54.108947972883499</v>
       </c>
       <c r="F9" s="7">
         <v>8</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>50.746662885757374</v>
+        <v>51.224342928099368</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8890609351531609</v>
+        <v>2.8846050447841307</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44707,22 +51096,22 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5761502792612734</v>
+        <v>1.394856236938371</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>52.57615027926127</v>
+        <v>51.394856236938374</v>
       </c>
       <c r="F10" s="7">
         <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>56.387974798682414</v>
+        <v>56.859733348809335</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.811824519421144</v>
+        <v>-5.4648771118709618</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44737,22 +51126,22 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3105128657962442</v>
+        <v>1.1733195119931978</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>57.310512865796241</v>
+        <v>56.173319511993199</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>62.029286711607455</v>
+        <v>62.49512376951931</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.7187738458112136</v>
+        <v>-6.3218042575261109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44767,22 +51156,22 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72371569132005931</v>
+        <v>1.9638820490908189</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>48.723715691320059</v>
+        <v>49.96388204909082</v>
       </c>
       <c r="F12" s="7">
         <v>11</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>67.670598624532488</v>
+        <v>68.130514190229277</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-18.946882933212429</v>
+        <v>-18.166632141138457</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44797,22 +51186,22 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59416603953200586</v>
+        <v>0.61329763406129556</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>98.094166039532013</v>
+        <v>98.113297634061297</v>
       </c>
       <c r="F13" s="7">
         <v>12</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>73.311910537457521</v>
+        <v>73.765904610939245</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>24.782255502074491</v>
+        <v>24.347393023122052</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44827,22 +51216,22 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.756421307494147</v>
+        <v>4.5664926775409667</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>71.756421307494151</v>
+        <v>74.566492677540964</v>
       </c>
       <c r="F14" s="7">
         <v>13</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>78.953222450382569</v>
+        <v>79.401295031649212</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.1968011428884182</v>
+        <v>-4.8348023541082483</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44857,22 +51246,22 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1967327548741173</v>
+        <v>3.531748372976018</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>91.19673275487412</v>
+        <v>93.531748372976011</v>
       </c>
       <c r="F15" s="7">
         <v>14</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>84.594534363307602</v>
+        <v>85.036685452359194</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6021983915665174</v>
+        <v>8.4950629206168173</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44887,22 +51276,22 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37358280523604848</v>
+        <v>4.9335752461199869</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>104.37358280523605</v>
+        <v>108.93357524611999</v>
       </c>
       <c r="F16" s="7">
         <v>15</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>90.23584627623265</v>
+        <v>90.672075873069161</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>14.137736529003405</v>
+        <v>18.261499373050825</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44917,22 +51306,22 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9580890774611261</v>
+        <v>1.3909766706249709</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>70.958089077461125</v>
+        <v>69.390976670624966</v>
       </c>
       <c r="F17" s="7">
         <v>16</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>95.877158189157683</v>
+        <v>96.307466293779129</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-24.919069111696558</v>
+        <v>-26.916489623154163</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44947,22 +51336,22 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5537134590957615</v>
+        <v>4.9653977981530897</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>85.553713459095761</v>
+        <v>85.965397798153091</v>
       </c>
       <c r="F18" s="7">
         <v>17</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>101.51847010208272</v>
+        <v>101.9428567144891</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-15.964756642986956</v>
+        <v>-15.977458916336005</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -44977,22 +51366,22 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.069610662728552</v>
+        <v>3.4389320929087925</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>98.06961066272855</v>
+        <v>98.438932092908786</v>
       </c>
       <c r="F19" s="7">
         <v>18</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>107.15978201500776</v>
+        <v>107.57824713519906</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.0901713522792136</v>
+        <v>-9.1393150422902778</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45007,22 +51396,22 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7063334333891484</v>
+        <v>4.5233654160431431</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>151.70633343338915</v>
+        <v>154.52336541604313</v>
       </c>
       <c r="F20" s="7">
         <v>19</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>112.8010939279328</v>
+        <v>113.21363755590905</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>38.90523950545635</v>
+        <v>41.309727860134089</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45037,22 +51426,22 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4712632509679806</v>
+        <v>4.7051820462352598</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>128.47126325096798</v>
+        <v>130.70518204623525</v>
       </c>
       <c r="F21" s="7">
         <v>20</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>118.44240584085784</v>
+        <v>118.84902797661901</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10.028857410110135</v>
+        <v>11.856154069616238</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45067,22 +51456,22 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5032167942243132</v>
+        <v>1.1643987822762247</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>110.50321679422431</v>
+        <v>111.16439878227622</v>
       </c>
       <c r="F22" s="7">
         <v>21</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>124.08371775378288</v>
+        <v>124.48441839732898</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-13.580500959558563</v>
+        <v>-13.320019615052757</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45097,22 +51486,22 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18719301050574955</v>
+        <v>2.0664887438570796</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>115.18719301050575</v>
+        <v>117.06648874385708</v>
       </c>
       <c r="F23" s="7">
         <v>22</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>129.72502966670791</v>
+        <v>130.11980881803896</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-14.53783665620216</v>
+        <v>-13.053320074181883</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45127,22 +51516,22 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5247832667381673</v>
+        <v>4.9048571852321867</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>97.524783266738169</v>
+        <v>100.90485718523219</v>
       </c>
       <c r="F24" s="7">
         <v>23</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>135.36634157963294</v>
+        <v>135.7551992387489</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-37.841558312894776</v>
+        <v>-34.850342053516712</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45157,22 +51546,22 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>3.67093260657869</v>
+        <v>4.2602636972754935</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>191.1709326065787</v>
+        <v>191.76026369727549</v>
       </c>
       <c r="F25" s="7">
         <v>24</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>141.00765349255798</v>
+        <v>141.3905896594589</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>50.163279114020725</v>
+        <v>50.369674037816594</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45187,22 +51576,22 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0177139922569245</v>
+        <v>0.28930502542477754</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>131.01771399225692</v>
+        <v>130.28930502542477</v>
       </c>
       <c r="F26" s="7">
         <v>25</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>146.64896540548304</v>
+        <v>147.02598008016884</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-15.631251413226124</v>
+        <v>-16.736675054744069</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45217,22 +51606,22 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6085751749939488</v>
+        <v>4.4578574657727392</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>163.60857517499394</v>
+        <v>166.45785746577275</v>
       </c>
       <c r="F27" s="7">
         <v>26</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>152.29027731840807</v>
+        <v>152.66137050087883</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11.318297856585872</v>
+        <v>13.796486964893916</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45247,22 +51636,22 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9785366158149731</v>
+        <v>0.74718535808387776</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>183.97853661581496</v>
+        <v>182.74718535808387</v>
       </c>
       <c r="F28" s="7">
         <v>27</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>157.93158923133311</v>
+        <v>158.29676092158883</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>26.046947384481854</v>
+        <v>24.450424436495041</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45277,22 +51666,22 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1743194606671561</v>
+        <v>2.2616472489237225</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>119.17431946066715</v>
+        <v>118.26164724892372</v>
       </c>
       <c r="F29" s="7">
         <v>28</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>163.57290114425814</v>
+        <v>163.93215134229877</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-44.39858168359099</v>
+        <v>-45.670504093375044</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45307,22 +51696,22 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6529903847936405</v>
+        <v>2.4444625776397011</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>137.65299038479364</v>
+        <v>137.44446257763971</v>
       </c>
       <c r="F30" s="7">
         <v>29</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>169.21421305718317</v>
+        <v>169.56754176300876</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-31.561222672389533</v>
+        <v>-32.12307918536905</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45337,22 +51726,22 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>3.837833957398832</v>
+        <v>1.2740419052262575</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>158.83783395739883</v>
+        <v>156.27404190522626</v>
       </c>
       <c r="F31" s="7">
         <v>30</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>174.85552497010823</v>
+        <v>175.2029321837187</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-16.017691012709406</v>
+        <v>-18.928890278492446</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45367,22 +51756,22 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7638121392847195</v>
+        <v>4.5244968597105748</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>242.76381213928471</v>
+        <v>244.52449685971058</v>
       </c>
       <c r="F32" s="7">
         <v>31</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>180.49683688303327</v>
+        <v>180.8383226044287</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>62.266975256251442</v>
+        <v>63.686174255281884</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45397,22 +51786,22 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9601205878341839</v>
+        <v>4.8539775036949324</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>201.96012058783418</v>
+        <v>202.85397750369492</v>
       </c>
       <c r="F33" s="7">
         <v>32</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>186.1381487959583</v>
+        <v>186.47371302513864</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>15.821971791875882</v>
+        <v>16.380264478556285</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45427,22 +51816,22 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6608535393836732</v>
+        <v>4.5141012366253825</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>174.66085353938368</v>
+        <v>174.51410123662538</v>
       </c>
       <c r="F34" s="7">
         <v>33</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>191.77946070888333</v>
+        <v>192.10910344584863</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-17.118607169499654</v>
+        <v>-17.595002209223253</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45457,22 +51846,22 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7930854802301672</v>
+        <v>3.5566017623047386</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>177.79308548023016</v>
+        <v>178.55660176230475</v>
       </c>
       <c r="F35" s="7">
         <v>34</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>197.42077262180837</v>
+        <v>197.74449386655857</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-19.627687141578207</v>
+        <v>-19.18789210425382</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45487,22 +51876,22 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5760129375781826</v>
+        <v>2.5467901113211782</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>148.57601293757818</v>
+        <v>146.54679011132117</v>
       </c>
       <c r="F36" s="7">
         <v>35</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>203.06208453473343</v>
+        <v>203.37988428726857</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-54.486071597155245</v>
+        <v>-56.833094175947394</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -45517,22 +51906,22 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3317314930534492</v>
+        <v>1.319256812941092</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>279.83173149305344</v>
+        <v>278.81925681294109</v>
       </c>
       <c r="F37" s="7">
         <v>36</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>208.70339644765846</v>
+        <v>209.01527470797851</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>71.128335045394977</v>
+        <v>69.803982104962586</v>
       </c>
     </row>
     <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data Science Introdução a análise de series temporais/Series Temporais data-analysis-a3.xlsx
+++ b/Data Science Introdução a análise de series temporais/Series Temporais data-analysis-a3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcamentoring-my.sharepoint.com/personal/alexsandro_ignacio_wca-ec_com_br/Documents/Documentos/Docs/Git/python_developer/Data Science Introdução a análise de series temporais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_6D6D3A00E23BC08A8658563FBD17460E90AB451C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66DA4AE3-136E-4F18-B75B-74CA5B0A2A15}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_6D6D3A00E23BC08A8658563FBD17460E90AB451C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69EDDEBA-6B0D-406D-B156-50F37E016525}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="450" yWindow="1005" windowWidth="20490" windowHeight="10155" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="660" yWindow="180" windowWidth="17475" windowHeight="10740" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brancos" sheetId="1" r:id="rId1"/>
@@ -8328,7 +8328,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8360,7 +8360,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -8447,7 +8447,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8479,7 +8479,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -9195,7 +9195,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -9227,7 +9227,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -10534,7 +10534,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -10566,7 +10566,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -10653,7 +10653,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -10685,7 +10685,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -11456,7 +11456,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -11488,7 +11488,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -12225,7 +12225,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -12257,7 +12257,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -12345,7 +12345,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -12377,7 +12377,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -26529,8 +26529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26538,9 +26538,10 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="17" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="14.42578125" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
     <col min="19" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
@@ -28267,7 +28268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -50837,11 +50838,11 @@
       </c>
       <c r="G1">
         <f t="array" aca="1" ref="G1:H1" ca="1">LINEST(E2:E37)</f>
-        <v>5.6353904207099701</v>
+        <v>5.6354692504364419</v>
       </c>
       <c r="H1">
         <f ca="1"/>
-        <v>6.1412195624196073</v>
+        <v>5.9388775713238999</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50856,22 +50857,22 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D37" ca="1" si="0">RAND()*5</f>
-        <v>2.1284724470322769</v>
+        <v>7.9403064622659003E-2</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E37" ca="1" si="1">B2*C2+D2</f>
-        <v>12.128472447032276</v>
+        <v>10.079403064622658</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G37" ca="1" si="2">$H$1+(F2*$G$1)</f>
-        <v>11.776609983129578</v>
+        <v>11.574346821760342</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H37" ca="1" si="3">E2-G2</f>
-        <v>0.35186246390269815</v>
+        <v>-1.4949437571376833</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50886,22 +50887,22 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8288413426639494</v>
+        <v>0.35552938810395451</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>21.828841342663949</v>
+        <v>18.355529388103953</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>17.412000403839549</v>
+        <v>17.209816072196784</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4168409388244001</v>
+        <v>1.1457133159071695</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50916,22 +50917,22 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7216489830019954</v>
+        <v>3.8189103303942269</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>27.721648983001995</v>
+        <v>29.818910330394228</v>
       </c>
       <c r="F4" s="7">
         <v>3</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>23.047390824549517</v>
+        <v>22.845285322633224</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6742581584524778</v>
+        <v>6.9736250077610045</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50946,22 +50947,22 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.176109326435113</v>
+        <v>2.8810319102334652</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>21.176109326435114</v>
+        <v>22.881031910233464</v>
       </c>
       <c r="F5" s="7">
         <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>28.682781245259488</v>
+        <v>28.480754573069667</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.5066719188243738</v>
+        <v>-5.5997226628362036</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50976,22 +50977,22 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4812765501181944</v>
+        <v>0.76781076816032467</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>29.481276550118196</v>
+        <v>27.767810768160324</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>34.318171665969459</v>
+        <v>34.116223823506111</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.836895115851263</v>
+        <v>-6.3484130553457874</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51006,22 +51007,22 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70291750648405926</v>
+        <v>0.55403405938289629</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>35.702917506484056</v>
+        <v>35.554034059382893</v>
       </c>
       <c r="F7" s="7">
         <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>39.953562086679426</v>
+        <v>39.751693073942548</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.2506445801953703</v>
+        <v>-4.1976590145596546</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51036,22 +51037,22 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2189522823322609</v>
+        <v>2.0525478691296017</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>62.21895228233226</v>
+        <v>62.052547869129604</v>
       </c>
       <c r="F8" s="7">
         <v>7</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>45.588952507389401</v>
+        <v>45.387162324378991</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16.62999977494286</v>
+        <v>16.665385544750613</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51066,22 +51067,22 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10894797288349689</v>
+        <v>2.3592418573061895</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>54.108947972883499</v>
+        <v>56.359241857306188</v>
       </c>
       <c r="F9" s="7">
         <v>8</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>51.224342928099368</v>
+        <v>51.022631574815435</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8846050447841307</v>
+        <v>5.3366102824907529</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51096,22 +51097,22 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.394856236938371</v>
+        <v>2.8437314554657926</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>51.394856236938374</v>
+        <v>52.843731455465793</v>
       </c>
       <c r="F10" s="7">
         <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>56.859733348809335</v>
+        <v>56.658100825251879</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.4648771118709618</v>
+        <v>-3.8143693697860854</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51126,22 +51127,22 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1733195119931978</v>
+        <v>2.9526742779659192</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>56.173319511993199</v>
+        <v>57.952674277965919</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>62.49512376951931</v>
+        <v>62.293570075688322</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.3218042575261109</v>
+        <v>-4.3408957977224034</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51156,22 +51157,22 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9638820490908189</v>
+        <v>0.4479206868499136</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>49.96388204909082</v>
+        <v>48.447920686849912</v>
       </c>
       <c r="F12" s="7">
         <v>11</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>68.130514190229277</v>
+        <v>67.929039326124752</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-18.166632141138457</v>
+        <v>-19.48111863927484</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51186,22 +51187,22 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61329763406129556</v>
+        <v>1.387687038676938</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>98.113297634061297</v>
+        <v>98.887687038676944</v>
       </c>
       <c r="F13" s="7">
         <v>12</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>73.765904610939245</v>
+        <v>73.564508576561195</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>24.347393023122052</v>
+        <v>25.323178462115749</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51216,22 +51217,22 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5664926775409667</v>
+        <v>1.0625499784156678</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>74.566492677540964</v>
+        <v>71.062549978415674</v>
       </c>
       <c r="F14" s="7">
         <v>13</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>79.401295031649212</v>
+        <v>79.199977826997639</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.8348023541082483</v>
+        <v>-8.1374278485819644</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51246,22 +51247,22 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.531748372976018</v>
+        <v>3.1366132369153279</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>93.531748372976011</v>
+        <v>93.136613236915323</v>
       </c>
       <c r="F15" s="7">
         <v>14</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>85.036685452359194</v>
+        <v>84.835447077434083</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4950629206168173</v>
+        <v>8.3011661594812409</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51276,22 +51277,22 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9335752461199869</v>
+        <v>4.1823483835427959</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>108.93357524611999</v>
+        <v>108.1823483835428</v>
       </c>
       <c r="F16" s="7">
         <v>15</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>90.672075873069161</v>
+        <v>90.470916327870526</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>18.261499373050825</v>
+        <v>17.711432055672276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51306,22 +51307,22 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3909766706249709</v>
+        <v>1.9410348581565247</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>69.390976670624966</v>
+        <v>69.941034858156527</v>
       </c>
       <c r="F17" s="7">
         <v>16</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>96.307466293779129</v>
+        <v>96.10638557830697</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-26.916489623154163</v>
+        <v>-26.165350720150442</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51336,22 +51337,22 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9653977981530897</v>
+        <v>4.1314665504789021</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>85.965397798153091</v>
+        <v>85.131466550478905</v>
       </c>
       <c r="F18" s="7">
         <v>17</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>101.9428567144891</v>
+        <v>101.74185482874341</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-15.977458916336005</v>
+        <v>-16.610388278264509</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51366,22 +51367,22 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4389320929087925</v>
+        <v>3.2980579228797779</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>98.438932092908786</v>
+        <v>98.298057922879778</v>
       </c>
       <c r="F19" s="7">
         <v>18</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>107.57824713519906</v>
+        <v>107.37732407917986</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.1393150422902778</v>
+        <v>-9.0792661563000792</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51396,22 +51397,22 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5233654160431431</v>
+        <v>3.7479383868574763</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>154.52336541604313</v>
+        <v>153.74793838685747</v>
       </c>
       <c r="F20" s="7">
         <v>19</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>113.21363755590905</v>
+        <v>113.0127933296163</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>41.309727860134089</v>
+        <v>40.735145057241169</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51426,22 +51427,22 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7051820462352598</v>
+        <v>4.126038997651218</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>130.70518204623525</v>
+        <v>130.12603899765122</v>
       </c>
       <c r="F21" s="7">
         <v>20</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>118.84902797661901</v>
+        <v>118.64826258005274</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11.856154069616238</v>
+        <v>11.477776417598477</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51456,22 +51457,22 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1643987822762247</v>
+        <v>3.8872020624352559</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>111.16439878227622</v>
+        <v>113.88720206243525</v>
       </c>
       <c r="F22" s="7">
         <v>21</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>124.48441839732898</v>
+        <v>124.28373183048917</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-13.320019615052757</v>
+        <v>-10.396529768053924</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51486,22 +51487,22 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0664887438570796</v>
+        <v>0.94091553179175891</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>117.06648874385708</v>
+        <v>115.94091553179176</v>
       </c>
       <c r="F23" s="7">
         <v>22</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>130.11980881803896</v>
+        <v>129.91920108092563</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-13.053320074181883</v>
+        <v>-13.978285549133872</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51516,22 +51517,22 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9048571852321867</v>
+        <v>3.5505594487928294</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>100.90485718523219</v>
+        <v>99.550559448792825</v>
       </c>
       <c r="F24" s="7">
         <v>23</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>135.7551992387489</v>
+        <v>135.55467033136208</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-34.850342053516712</v>
+        <v>-36.00411088256925</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51546,22 +51547,22 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2602636972754935</v>
+        <v>1.2069169069252106</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>191.76026369727549</v>
+        <v>188.70691690692522</v>
       </c>
       <c r="F25" s="7">
         <v>24</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>141.3905896594589</v>
+        <v>141.19013958179849</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>50.369674037816594</v>
+        <v>47.516777325126725</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51576,22 +51577,22 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28930502542477754</v>
+        <v>4.063575555192255</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>130.28930502542477</v>
+        <v>134.06357555519224</v>
       </c>
       <c r="F26" s="7">
         <v>25</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>147.02598008016884</v>
+        <v>146.82560883223493</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-16.736675054744069</v>
+        <v>-12.76203327704269</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51606,22 +51607,22 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4578574657727392</v>
+        <v>4.1981446797366635</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>166.45785746577275</v>
+        <v>166.19814467973666</v>
       </c>
       <c r="F27" s="7">
         <v>26</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>152.66137050087883</v>
+        <v>152.46107808267138</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.796486964893916</v>
+        <v>13.737066597065279</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51636,22 +51637,22 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74718535808387776</v>
+        <v>2.5151963795091907</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>182.74718535808387</v>
+        <v>184.51519637950918</v>
       </c>
       <c r="F28" s="7">
         <v>27</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>158.29676092158883</v>
+        <v>158.09654733310782</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>24.450424436495041</v>
+        <v>26.418649046401356</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51666,22 +51667,22 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2616472489237225</v>
+        <v>3.2372436107341285</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>118.26164724892372</v>
+        <v>119.23724361073413</v>
       </c>
       <c r="F29" s="7">
         <v>28</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>163.93215134229877</v>
+        <v>163.73201658354427</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-45.670504093375044</v>
+        <v>-44.494772972810139</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51696,22 +51697,22 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4444625776397011</v>
+        <v>3.0266040525904274</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>137.44446257763971</v>
+        <v>138.02660405259041</v>
       </c>
       <c r="F30" s="7">
         <v>29</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>169.56754176300876</v>
+        <v>169.36748583398071</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-32.12307918536905</v>
+        <v>-31.340881781390294</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51726,22 +51727,22 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2740419052262575</v>
+        <v>0.56761895799256334</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>156.27404190522626</v>
+        <v>155.56761895799255</v>
       </c>
       <c r="F31" s="7">
         <v>30</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>175.2029321837187</v>
+        <v>175.00295508441715</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-18.928890278492446</v>
+        <v>-19.435336126424602</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51756,22 +51757,22 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5244968597105748</v>
+        <v>2.3999513817275941</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>244.52449685971058</v>
+        <v>242.39995138172759</v>
       </c>
       <c r="F32" s="7">
         <v>31</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>180.8383226044287</v>
+        <v>180.6384243348536</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>63.686174255281884</v>
+        <v>61.761527046873994</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51786,22 +51787,22 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8539775036949324</v>
+        <v>3.0340567985115117</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>202.85397750369492</v>
+        <v>201.0340567985115</v>
       </c>
       <c r="F33" s="7">
         <v>32</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>186.47371302513864</v>
+        <v>186.27389358529004</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16.380264478556285</v>
+        <v>14.76016321322146</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51816,22 +51817,22 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5141012366253825</v>
+        <v>2.2785052923342648</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>174.51410123662538</v>
+        <v>172.27850529233427</v>
       </c>
       <c r="F34" s="7">
         <v>33</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>192.10910344584863</v>
+        <v>191.90936283572648</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-17.595002209223253</v>
+        <v>-19.63085754339221</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51846,22 +51847,22 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5566017623047386</v>
+        <v>3.92575969274895</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>178.55660176230475</v>
+        <v>178.92575969274895</v>
       </c>
       <c r="F35" s="7">
         <v>34</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>197.74449386655857</v>
+        <v>197.54483208616293</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-19.18789210425382</v>
+        <v>-18.619072393413973</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51876,22 +51877,22 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5467901113211782</v>
+        <v>0.50595758005255453</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>146.54679011132117</v>
+        <v>144.50595758005255</v>
       </c>
       <c r="F36" s="7">
         <v>35</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>203.37988428726857</v>
+        <v>203.18030133659937</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-56.833094175947394</v>
+        <v>-58.674343756546818</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -51906,22 +51907,22 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>1.319256812941092</v>
+        <v>4.0573344060669463</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>278.81925681294109</v>
+        <v>281.55733440606696</v>
       </c>
       <c r="F37" s="7">
         <v>36</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>209.01527470797851</v>
+        <v>208.81577058703581</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>69.803982104962586</v>
+        <v>72.741563819031143</v>
       </c>
     </row>
     <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
